--- a/sub-00AD/results_onetap_sub-00AD.xlsx
+++ b/sub-00AD/results_onetap_sub-00AD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2ba5e4d6c31477a/Documents/GitHub/psych/sub-00AD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:40009_{0ECCA8F4-6F0A-47C4-B01A-E14F3C2BBEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D50CD7F7-7B73-42CC-8758-06A9D1ECCD7D}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:40009_{0ECCA8F4-6F0A-47C4-B01A-E14F3C2BBEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89028B03-71EF-4F28-AAAF-8F606002F6DA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="results_onetap_sub-00AD" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">'results_onetap_sub-00AD (2)'!$A$1:$G$14</definedName>
+    <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">'results_onetap_sub-00AD (2)'!$A$1:$G$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Essai,400,600,800,1000,1200,1400</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Diff</t>
+  </si>
+  <si>
+    <t>CV</t>
   </si>
 </sst>
 </file>
@@ -730,8 +733,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="results_onetap_sub_00AD" displayName="results_onetap_sub_00AD" ref="A1:G14" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="results_onetap_sub_00AD" displayName="results_onetap_sub_00AD" ref="A1:G15" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Essai" queryTableFieldId="1" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="400" queryTableFieldId="2" dataDxfId="5"/>
@@ -1045,7 +1048,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B16"/>
+      <selection activeCell="B15" sqref="B15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1342,28 +1345,28 @@
         <v>29</v>
       </c>
       <c r="B13" s="2">
-        <f>_xlfn.STDEV.S(B2:B11)</f>
-        <v>7.3319566803404151E-2</v>
+        <f>_xlfn.STDEV.P(B2:B11)</f>
+        <v>6.9557048446688224E-2</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" ref="C13:F13" si="1">_xlfn.STDEV.S(C2:C11)</f>
-        <v>0.12449082079531659</v>
+        <f t="shared" ref="C13:G13" si="1">_xlfn.STDEV.P(C2:C11)</f>
+        <v>0.11810236244911614</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>0.10705416702504879</v>
+        <v>0.10156050024337386</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
-        <v>0.11809152133888806</v>
+        <v>0.11203145393557896</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="1"/>
-        <v>0.16203947118580692</v>
+        <v>0.15372413993891343</v>
       </c>
       <c r="G13" s="2">
-        <f>_xlfn.STDEV.S(G2:G11)</f>
-        <v>0.1973164130971875</v>
+        <f t="shared" si="1"/>
+        <v>0.18719078553653687</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -1395,6 +1398,35 @@
         <v>-0.26029648000839511</v>
       </c>
     </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2">
+        <f>B13/B12</f>
+        <v>0.12013012123695173</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" ref="C15:G15" si="2">C13/C12</f>
+        <v>0.12262604968469921</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="2"/>
+        <v>8.5660330731186826E-2</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="2"/>
+        <v>8.7033849346933354E-2</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10526256464398917</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.11274539685562085</v>
+      </c>
+    </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
@@ -1405,7 +1437,7 @@
       </c>
       <c r="B17" s="2">
         <f>AVERAGE(B13:G13)</f>
-        <v>0.13038532670760866</v>
+        <v>0.12369438175836793</v>
       </c>
     </row>
   </sheetData>
